--- a/RMIS/wwwroot/kml/施工通報_改版.xlsx
+++ b/RMIS/wwwroot/kml/施工通報_改版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\測試資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\wwwroot\kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A743D357-E5B3-4A93-B996-1512983E0F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472BE75-C8F0-4942-A8D8-E0D985BE2002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DEB82E0-9273-4124-893C-70F5AA5FF5BC}"/>
   </bookViews>
@@ -61,17 +61,19 @@
     <t>中壢區高鐵站前東路與青山路</t>
   </si>
   <si>
-    <t>{"許可證號": "AP11318766", "工程案號": "AP11318766", "核定單位": "工務局", "工程名稱": "桃園市道路工程通報案件", "施工狀態": "本日施工", "施工開始日期": "2024/11/26 AM 12:00:00", "施工結束日期": "2025/1/31 AM 12:00:00", "行政區": "中壢區", "施工地點": "中壢區高鐵站前東路與青山路-高鐵站前東路與青山路(開挖開關箱)", "白天施工時段": "", "晚上施工時段": "", "管線單位": "桃園市政府養護工程處路燈工程科", "施工原因": "", "變更狀態": "", "變更日期": "", "結案日期": "", "施工前照片": "AP11318766_01.png", "施工後照片": "AP11318766_01.png", "打卡告示照片": "AP11318766_03.png", "打卡交管照片": "AP11318766_04.png", "施工範圍": [["25.013416726144825, 121.21638832141913", "25.01320769080961, 121.21635613491283", "25.0130278229108, 121.21669409322902", "25.01330491659119, 121.21656534720383"], ["25.01259658950617, 121.21894740175556", "25.01260631213617, 121.21915661404655", "25.012681662492607, 121.21900909255933"]]}</t>
-  </si>
-  <si>
-    <t>{"許可證號": "AP11318765", "工程案號": "AP11318765", "核定單位": "工務局", "工程名稱": "桃園市道路工程通報案件", "施工狀態": "本日施工", "施工開始日期": "2024/12/20 AM 12:00:00", "施工結束日期": "2025/1/10 AM 12:00:00", "行政區": "中壢區", "施工地點": "觀音大溪線-縱貫公路路", "白天施工時段": "", "晚上施工時段": "", "管線單位": "桃園市政府養護工程處路燈工程科", "施工原因": "", "變更狀態": "", "變更日期": "", "結案日期": "", "施工前照片": "AP11318765_01.png", "施工後照片": "AP11318765_01.png", "打卡告示照片": "AP11318765_03.png", "打卡交管照片": "AP11318765_04.png", "施工範圍": [["24.93288825394436, 121.19885516922491", "24.9321535748565, 121.19815981421968", "24.931725492108882, 121.19906568954761"], ["24.93229116346985, 121.19695409837152", "24.932001918855914, 121.19771962681764", "24.93138871802945, 121.1969477189678"]]}</t>
-  </si>
-  <si>
     <t>road_name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>觀音大溪線-縱貫公路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"許可證號": "AP11318766", "工程案號": "AP11318766", "核定單位": "工務局", "工程名稱": "桃園市道路工程通報案件", "施工狀態": "本日施工", "施工開始日期": "2024/11/26 AM 12:00:00", "施工結束日期": "2025/1/31 AM 12:00:00", "行政區": "中壢區", "施工地點": "中壢區高鐵站前東路與青山路-高鐵站前東路與青山路(開挖開關箱)", "白天施工時段": "", "晚上施工時段": "", "管線單位": "桃園市政府養護工程處路燈工程科", "施工原因": "", "變更狀態": "", "變更日期": "", "結案日期": "", "施工前照片": "AP11318766_01.png", "施工後照片": "AP11318766_02.png", "打卡告示照片": "AP11318766_03.png", "打卡交管照片": "AP11318766_04.png", "施工範圍": [["25.013416726144825, 121.21638832141913", "25.01320769080961, 121.21635613491283", "25.0130278229108, 121.21669409322902", "25.01330491659119, 121.21656534720383"], ["25.01259658950617, 121.21894740175556", "25.01260631213617, 121.21915661404655", "25.012681662492607, 121.21900909255933"]]}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"許可證號": "AP11318765", "工程案號": "AP11318765", "核定單位": "工務局", "工程名稱": "桃園市道路工程通報案件", "施工狀態": "本日施工", "施工開始日期": "2024/12/20 AM 12:00:00", "施工結束日期": "2025/1/10 AM 12:00:00", "行政區": "中壢區", "施工地點": "觀音大溪線-縱貫公路路", "白天施工時段": "", "晚上施工時段": "", "管線單位": "桃園市政府養護工程處路燈工程科", "施工原因": "", "變更狀態": "", "變更日期": "", "結案日期": "", "施工前照片": "AP11318765_01.png", "施工後照片": "AP11318765_02.png", "打卡告示照片": "AP11318765_03.png", "打卡交管照片": "AP11318765_04.png", "施工範圍": [["24.93288825394436, 121.19885516922491", "24.9321535748565, 121.19815981421968", "24.931725492108882, 121.19906568954761"], ["24.93229116346985, 121.19695409837152", "24.932001918855914, 121.19771962681764", "24.93138871802945, 121.1969477189678"]]}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1029,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1122,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
